--- a/Hardware/001000-004BOM627formatted.xlsx
+++ b/Hardware/001000-004BOM627formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WaiveCar\WaiveTelem\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5163F5DE-ED5C-4720-9CD6-EA4AE704DC8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF921A6-971A-4DC5-A0AA-5466E4C2F82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="17655" windowHeight="12000"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="001000-004BOM627" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1695,7 +1695,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -2011,11 +2011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G48" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,7 +4510,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:J90">
+  <autoFilter ref="A6:J90" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A7:J90">
       <sortCondition ref="A6:A90"/>
     </sortState>
